--- a/biology/Histoire de la zoologie et de la botanique/Jane_Brotherton_Walker/Jane_Brotherton_Walker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jane_Brotherton_Walker/Jane_Brotherton_Walker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jane Brotherton Walker (31 janvier 1925 – 3 avril 2009) est une taxonomiste, entomologiste et parasitologiste britannico-kényane. Elle est l'une des principaux experts du XXe siècle, dans le domaine de la taxonomie de la tique, en particulier en Afrique.
 </t>
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 31 janvier 1925 à Nairobi, au Kenya, Walker a grandi dans une ferme et elle est scolarisée à la maison par sa mère au cours de ses années d'école primaire. Elle a terminé ses études secondaires en Angleterre, où elle est diplômée de la Retford High School for Girls (en) en 1944. Pendant son séjour en Angleterre, elle a contracté la poliomyélite, dont les séquelles auront progressivement un effet sur sa capacité à marcher, en particulier durant ses dernières années. Elle obtient son Baccalauréat universitaire en sciences (avec distinction) en 1948 et sa Maîtrise universitaire ès sciences en 1959, tous les deux à l'Université de Liverpool. En 1983, elle reçoit un Doctorat en sciences (Hon.) de l'Université du Witwatersrand à Johannesburg[1].
-Le Dr Walker a d'abord été employée en 1949 à la Direction de la Recherche du Service Civil à l'étranger de Sa Majesté, en tant que responsable de la Recherche au sein de l'Organisation de Recherche Vétérinaire d'Afrique de l'Est à Muguga, au Kenya, où elle a été promue jusqu'à obtenir un poste à l'Institut de Recherche Vétérinaire d'Onderstepoort, en 1966, à l'occasion de la retraite du Dr Gertrud Theiler. Elle a passé le reste de sa vie active à l'Institut, gravissant les échelons vers le statut de chercheur vétérinaire en chef, et servant en tant que spécialiste scientifique jusqu'à ce que des problèmes de santé l'obligent à la retraite en 1990. Après sa retraite officielle, elle a continué à travailler à Onderstepoort jusqu'en 1998. Elle a été l'un des principaux experts sur les tiques[1],[2] du genre Rhipicephalus et Amblyomma d'Afrique et a siégé en tant que membre du Comité de Rédaction du Onderstepoort Journal of Veterinary Research de 1969 à 2000. Au cours de sa carrière active, Walker est l'auteure ou co-auteure de 53 publications scientifiques et de cinq livres, et décrit 18 nouvelles espèces de tiques[1].
-Elle est décédée à son domicile de Pretoria, le matin du vendredi 3 avril 2009, laissant un vaste héritage dans ses travaux publiés, et dans la formation et la sagesse qu'elle a transmises à d'autres personnes, dont d'éminents chercheurs comme le Dr Gertrud Theiler et le Dr Harry Hoogstraal (en)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 31 janvier 1925 à Nairobi, au Kenya, Walker a grandi dans une ferme et elle est scolarisée à la maison par sa mère au cours de ses années d'école primaire. Elle a terminé ses études secondaires en Angleterre, où elle est diplômée de la Retford High School for Girls (en) en 1944. Pendant son séjour en Angleterre, elle a contracté la poliomyélite, dont les séquelles auront progressivement un effet sur sa capacité à marcher, en particulier durant ses dernières années. Elle obtient son Baccalauréat universitaire en sciences (avec distinction) en 1948 et sa Maîtrise universitaire ès sciences en 1959, tous les deux à l'Université de Liverpool. En 1983, elle reçoit un Doctorat en sciences (Hon.) de l'Université du Witwatersrand à Johannesburg.
+Le Dr Walker a d'abord été employée en 1949 à la Direction de la Recherche du Service Civil à l'étranger de Sa Majesté, en tant que responsable de la Recherche au sein de l'Organisation de Recherche Vétérinaire d'Afrique de l'Est à Muguga, au Kenya, où elle a été promue jusqu'à obtenir un poste à l'Institut de Recherche Vétérinaire d'Onderstepoort, en 1966, à l'occasion de la retraite du Dr Gertrud Theiler. Elle a passé le reste de sa vie active à l'Institut, gravissant les échelons vers le statut de chercheur vétérinaire en chef, et servant en tant que spécialiste scientifique jusqu'à ce que des problèmes de santé l'obligent à la retraite en 1990. Après sa retraite officielle, elle a continué à travailler à Onderstepoort jusqu'en 1998. Elle a été l'un des principaux experts sur les tiques, du genre Rhipicephalus et Amblyomma d'Afrique et a siégé en tant que membre du Comité de Rédaction du Onderstepoort Journal of Veterinary Research de 1969 à 2000. Au cours de sa carrière active, Walker est l'auteure ou co-auteure de 53 publications scientifiques et de cinq livres, et décrit 18 nouvelles espèces de tiques.
+Elle est décédée à son domicile de Pretoria, le matin du vendredi 3 avril 2009, laissant un vaste héritage dans ses travaux publiés, et dans la formation et la sagesse qu'elle a transmises à d'autres personnes, dont d'éminents chercheurs comme le Dr Gertrud Theiler et le Dr Harry Hoogstraal (en).
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus du doctorat en sciences honoraire que l'Université du Witwatersrand lui a décerné en 1983, le Dr Walker a été reconnue par ses pairs, avec trois des plus prestigieuses récompenses dans le domaine de la biologie en Afrique du Sud : en 1988 la Médaille honoraire de la Société Parasitologique d'Afrique du Sud pour services exceptionnels rendus à la Parasitologie en Afrique ; le prix de la Femme de l'Année 1998 en sciences et technologie agricoles ; et le Theiler Memorial Trust Award en 1998 pour services exceptionnels rendus à la Science Vétérinaire en Afrique[1].
-La tique de type Argasidae Argas walkera de Kaiser et Hoogstraal, en 1969, « Walker's South African fowl argasid » a été nommée en son honneur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus du doctorat en sciences honoraire que l'Université du Witwatersrand lui a décerné en 1983, le Dr Walker a été reconnue par ses pairs, avec trois des plus prestigieuses récompenses dans le domaine de la biologie en Afrique du Sud : en 1988 la Médaille honoraire de la Société Parasitologique d'Afrique du Sud pour services exceptionnels rendus à la Parasitologie en Afrique ; le prix de la Femme de l'Année 1998 en sciences et technologie agricoles ; et le Theiler Memorial Trust Award en 1998 pour services exceptionnels rendus à la Science Vétérinaire en Afrique.
+La tique de type Argasidae Argas walkera de Kaiser et Hoogstraal, en 1969, « Walker's South African fowl argasid » a été nommée en son honneur.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Notes on the ticks of Botswana, 1978.
 The genus Rhipicrphalus (Acari, Ixodidae), 1999.
